--- a/biology/Botanique/Gomphide_rose/Gomphide_rose.xlsx
+++ b/biology/Botanique/Gomphide_rose/Gomphide_rose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gomphidius roseus
 Le gomphide rose (Gomphidius roseus) est une espèce de champignons basidiomycètes de la famille des Gomphidiaceae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Chapeau 3 à 5 cm, convexe puis plan, parfois légèrement déprimé, à cuticule d'un beau rouge-rose brillant,  se tachant de noir, très visqueuse par temps humide.
 Lames espacées, longuement décurrentes, blanches, se tachant de noir à l'arête par la sporée brun foncé.
@@ -545,9 +559,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Assez rare en Europe, le gomphide rose pousse de l'été à l'automne en terrain acide, généralement sous conifères, souvent associé à Suillus bovinus (toujours et unilatéralement selon Marchand: “pas de Gomphide sans ce Bolet, mais le Bolet seul est fréquent!”)[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Assez rare en Europe, le gomphide rose pousse de l'été à l'automne en terrain acide, généralement sous conifères, souvent associé à Suillus bovinus (toujours et unilatéralement selon Marchand: “pas de Gomphide sans ce Bolet, mais le Bolet seul est fréquent!”)
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme tous les gomphides connus à ce jour en Europe, c'est un comestible médiocre.
 </t>
@@ -607,7 +625,9 @@
           <t>Espèces voisines</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gomphidius maculatus
 Gomphidius gracilis</t>
@@ -638,7 +658,9 @@
           <t>Confusions possibles</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">De loin, on peut prendre le gomphide rose pour une petite russule, du groupe emetica par exemple. La présence de Suillus bovinus permettrait de confirmer son identification, mais reste trop aléatoire, et la chair grenue et cassante des russules est bien plus fiable, ainsi que la décurrence des lames qui lui donne l'aspect d'un blaireau à barbe.
 </t>
@@ -669,7 +691,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Les Champignons, Roger Phillips, éditions Solar,  (ISBN 2-263-00640-0)
 Champignons du Nord et du Midi, André Marchand, tome III / IX, Hachette,  (ISBN 84-499-0649-0)
